--- a/結合テスト.xlsx
+++ b/結合テスト.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="70">
   <si>
     <t>結合テスト項目</t>
   </si>
@@ -76,7 +76,8 @@
   </si>
   <si>
     <t>1.アカウント登録画面で記入または選択する
-2.「確認する」ボタンをクリックする</t>
+2.「確認する」ボタンをクリックする
+3.入力した内容が各項目に表示されているか確認</t>
   </si>
   <si>
     <t>入力された内容が表示される</t>
@@ -241,6 +242,23 @@
     <t>1.住所(番地）のテキストボックスにひらがな、漢字、数字、
 カタカナ、記号（ハイフンとスペース）以外を入力
 2.「確認する」ボタンをクリックする</t>
+  </si>
+  <si>
+    <t>hiddenでフォームから送られた情報を非表示にしている</t>
+  </si>
+  <si>
+    <t>送信ボタンに情報が送られ、hiddenで非表示になっている</t>
+  </si>
+  <si>
+    <t>1.登録フォームに内容を入力し、「確認する」ボタンをクリック
+2.送信ボタンの下側に送られてきた情報がないことを確認
+3.登録確認画面で右クリックし、「ページのソースを表示」をクリック
+4. &lt;div class="bottom"&gt;に入力内容が送られている確認。</t>
+  </si>
+  <si>
+    <t>送信ボタンの下は空欄だが、ページソースの
+&lt;div class="bottom"&gt;には送られた入力内容
+が表示されている</t>
   </si>
 </sst>
 </file>
@@ -699,8 +717,8 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="8.13"/>
     <col customWidth="1" min="2" max="2" width="47.25"/>
-    <col customWidth="1" min="3" max="3" width="41.75"/>
-    <col customWidth="1" min="4" max="4" width="52.13"/>
+    <col customWidth="1" min="3" max="3" width="44.63"/>
+    <col customWidth="1" min="4" max="4" width="54.88"/>
     <col customWidth="1" min="5" max="5" width="34.25"/>
     <col customWidth="1" min="6" max="6" width="19.75"/>
     <col customWidth="1" min="7" max="7" width="19.38"/>
@@ -1589,10 +1607,18 @@
       <c r="A30" s="14">
         <v>24.0</v>
       </c>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
+      <c r="B30" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>69</v>
+      </c>
       <c r="F30" s="13"/>
       <c r="G30" s="13"/>
       <c r="H30" s="13"/>

--- a/結合テスト.xlsx
+++ b/結合テスト.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="125">
   <si>
     <t>結合テスト項目</t>
   </si>
@@ -67,6 +67,12 @@
   </si>
   <si>
     <t>アカウント登録確認画面に移動する</t>
+  </si>
+  <si>
+    <t>アカウント登録確認画面に移動した</t>
+  </si>
+  <si>
+    <t>PC、Windows、Google Chrome</t>
   </si>
   <si>
     <t>名前(姓)に入力した内容が登録確認画面に送られる</t>
@@ -101,12 +107,6 @@
     <t>メールアドレスに入力した内容が表示される</t>
   </si>
   <si>
-    <t>パスワードに入力した内容が登録確認画面に送られる</t>
-  </si>
-  <si>
-    <t>パスワードに入力した内容が表示される</t>
-  </si>
-  <si>
     <t>性別で選択した内容が登録確認画面に送られる</t>
   </si>
   <si>
@@ -157,6 +157,10 @@
 未入力以外の項目は入力された状態になる</t>
   </si>
   <si>
+    <t>登録確認画面には移動せず、未入力
+の項目にエラーメッセージが表示</t>
+  </si>
+  <si>
     <t>名前(姓)にひらがな、漢字以外が入力されていると
 登録確認画面に進めない</t>
   </si>
@@ -171,6 +175,10 @@
   <si>
     <t>登録確認画面に移動せず、
 エラーメッセージが表示される</t>
+  </si>
+  <si>
+    <t>確認画面に移動せず、「指定されている
+形式で入力してください。」と表示される</t>
   </si>
   <si>
     <t>名前(名)にひらがな、漢字以外が入力されていると
@@ -208,12 +216,19 @@
 2.「確認する」ボタンをクリックする</t>
   </si>
   <si>
+    <t>＠以降にひらがなを入力すると、エラーが出ず
+送られた情報も変わっている</t>
+  </si>
+  <si>
     <t>パスワードに半角英数字以外が入力されていると
 登録確認画面に進めない</t>
   </si>
   <si>
     <t>1.パスワードのテキストボックスに半角英数字以外を入力
 2.「確認する」ボタンをクリックする</t>
+  </si>
+  <si>
+    <t>ローマ字が入力できる</t>
   </si>
   <si>
     <t>郵便番号に半角数字以外が入力されていると
@@ -242,6 +257,9 @@
     <t>1.住所(番地）のテキストボックスにひらがな、漢字、数字、
 カタカナ、記号（ハイフンとスペース）以外を入力
 2.「確認する」ボタンをクリックする</t>
+  </si>
+  <si>
+    <t>記号が入力できる</t>
   </si>
   <si>
     <t>hiddenでフォームから送られた情報を非表示にしている</t>
@@ -259,13 +277,194 @@
     <t>送信ボタンの下は空欄だが、ページソースの
 &lt;div class="bottom"&gt;には送られた入力内容
 が表示されている</t>
+  </si>
+  <si>
+    <t>情報が送られている</t>
+  </si>
+  <si>
+    <t>アカウント登録確認画面⇒アカウント登録完了画面</t>
+  </si>
+  <si>
+    <t>アカウント登録完了画面に移動する</t>
+  </si>
+  <si>
+    <t>「登録する」ボタンを押した後、アカウント登録完了画面に移動する</t>
+  </si>
+  <si>
+    <t>1.アカウント登録確認画面に情報が記載されていることを確認
+2.「登録する」ボタンをクリック
+3.アカウント登録完了画面に移動するか確認</t>
+  </si>
+  <si>
+    <t>送信エラーが発生した際のエラー表記</t>
+  </si>
+  <si>
+    <t>「エラーが発生したためアカウント登録出来ません。」
+と赤字で表示され、データが送信されない</t>
+  </si>
+  <si>
+    <t>1.アカウント登録確認画面に情報が記載されていることを確認
+2.XAMMPのMySQLを止める
+3.「登録する」ボタンをクリック
+4.表記の確認</t>
+  </si>
+  <si>
+    <t>「エラーが発生したためアカウント登録出来ません。」
+と赤字で表示される</t>
+  </si>
+  <si>
+    <t>アカウント登録確認画面⇒アカウント登録完了画面⇒MySQL ページURL：http://localhost/phpmyadmin/index.php?route=/sql&amp;pos=0&amp;db=lesson01&amp;table=acount</t>
+  </si>
+  <si>
+    <t>アカウント登録確認画面からMySQLに情報を保存する</t>
+  </si>
+  <si>
+    <t>各入力項目がMySQLの該当項目に保存されている</t>
+  </si>
+  <si>
+    <t>1.アカウント登録確認画面に情報が記載されていることを確認
+2.「確認する」ボタンをクリック
+3.アカウント登録完了画面に移動
+4.ページURLからMySQLに移動
+5.情報がMySQLに情報が保存されていることを確認</t>
+  </si>
+  <si>
+    <t>MySQLに情報が保存されている</t>
+  </si>
+  <si>
+    <t>名前(姓)をfamily_nameに保存する</t>
+  </si>
+  <si>
+    <t>名前(姓)がfamily_nameの項目に保存されているか</t>
+  </si>
+  <si>
+    <t>1.アカウント登録確認画面に情報が記載され散ることを確認
+2.「確認する」ボタンをクリック
+3.アカウント登録完了画面に移動
+4.ページURLからMySQLに移動
+5.各項目の情報が保存されているかを確認
+※パスワードはハッシュ化されたものが記載されている
+アカウント権限は、「一般」は0「管理者」は1で表記されている</t>
+  </si>
+  <si>
+    <t>適切な形式でMySQLに情報が保存される</t>
+  </si>
+  <si>
+    <t>名前(名)をlast_nameに保存する</t>
+  </si>
+  <si>
+    <t>名前(名)がlast_nameの項目に保存されているか</t>
+  </si>
+  <si>
+    <t>カナ(姓)をfamily_name_kanaに保存する</t>
+  </si>
+  <si>
+    <t>カナ(姓)がfamily_name_kanaに保存されているか</t>
+  </si>
+  <si>
+    <t>カナ(名)をlast_name_kanaに保存する</t>
+  </si>
+  <si>
+    <t>カナ(名)がlast_name_kanaに保存されているか</t>
+  </si>
+  <si>
+    <t>メールアドレスをmailに保存する</t>
+  </si>
+  <si>
+    <t>メールアドレスがmailに保存されているか</t>
+  </si>
+  <si>
+    <t>パスワードをpasswordに保存する</t>
+  </si>
+  <si>
+    <t>パスワードがpasswordに保存されているか</t>
+  </si>
+  <si>
+    <t>性別をgenderに保存する</t>
+  </si>
+  <si>
+    <t>性別がgenderに保存されているか</t>
+  </si>
+  <si>
+    <t>郵便番号をpostal_codeに保存する</t>
+  </si>
+  <si>
+    <t>郵便番号がpostal_codeに保存されているか</t>
+  </si>
+  <si>
+    <t>住所(都道府県)をprefectureに保存する</t>
+  </si>
+  <si>
+    <t>住所(都道府県)がprefectureに保存されているか</t>
+  </si>
+  <si>
+    <t>住所(市区町村)をaddress_1に保存する</t>
+  </si>
+  <si>
+    <t>住所(市区町村)がaddress_1に保存されているか</t>
+  </si>
+  <si>
+    <t>住所(番地)をaddress_2に保存する</t>
+  </si>
+  <si>
+    <t>住所(番地)がaddress_2に保存されているか</t>
+  </si>
+  <si>
+    <t>アカウント権限をauthorityに保存する</t>
+  </si>
+  <si>
+    <t>アカウント権限がauthorityに保存されている</t>
+  </si>
+  <si>
+    <t>パスワードのハッシュ化</t>
+  </si>
+  <si>
+    <t>MySQLに保存されているパスワードがハッシュ化されているか</t>
+  </si>
+  <si>
+    <t>1.アカウント登録確認画面に情報が記載され散ることを確認
+2.「確認する」ボタンをクリック
+3.アカウント登録完了画面に移動
+4.ページURLからMySQLに移動
+5.passwordの項目にハッシュ化された情報が保存されている</t>
+  </si>
+  <si>
+    <t>パスワードが入力したものではなく、ハッシュ化された
+別物に置き換わっている</t>
+  </si>
+  <si>
+    <t>アカウント登録確認画面⇒アカウント登録画面</t>
+  </si>
+  <si>
+    <t>「前に戻る」ボタンを押すと、入力項目に情報が残る</t>
+  </si>
+  <si>
+    <t>確認画面の入力内容が登録画面の入力欄にも入っているか</t>
+  </si>
+  <si>
+    <t>1.アカウント登録画面に情報を記入。
+2.「登録する」ボタンをクリック
+3.アカウント登録確認画面の内容を確認
+4.「前に戻る」ボタンをクリック
+5.アカウント登録確認画面の内容が各項目に反映されている</t>
+  </si>
+  <si>
+    <t>「前に戻る」ボタンを押しても、登録画面で入力内容が
+削除されない</t>
+  </si>
+  <si>
+    <t>削除されず、確認画面の情報が記入欄に反映
+されている</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy/mm/dd"/>
+  </numFmts>
+  <fonts count="11">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -295,14 +494,52 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="20.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="19.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="15">
     <border/>
@@ -422,6 +659,17 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -433,23 +681,12 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="36">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -491,14 +728,59 @@
     <xf borderId="11" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
+    <xf borderId="11" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
     <xf borderId="11" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf borderId="12" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="13" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="13" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
     <xf borderId="14" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="12" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="9" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="11" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="11" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="11" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -717,10 +999,10 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="8.13"/>
     <col customWidth="1" min="2" max="2" width="47.25"/>
-    <col customWidth="1" min="3" max="3" width="44.63"/>
+    <col customWidth="1" min="3" max="3" width="54.63"/>
     <col customWidth="1" min="4" max="4" width="54.88"/>
-    <col customWidth="1" min="5" max="5" width="34.25"/>
-    <col customWidth="1" min="6" max="6" width="19.75"/>
+    <col customWidth="1" min="5" max="5" width="44.63"/>
+    <col customWidth="1" min="6" max="6" width="38.38"/>
     <col customWidth="1" min="7" max="7" width="19.38"/>
     <col customWidth="1" min="8" max="8" width="32.75"/>
     <col customWidth="1" min="9" max="9" width="38.75"/>
@@ -821,10 +1103,16 @@
       <c r="E7" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
+      <c r="F7" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="17">
+        <v>45037.0</v>
+      </c>
+      <c r="H7" s="18"/>
+      <c r="I7" s="19" t="s">
+        <v>19</v>
+      </c>
       <c r="J7" s="13"/>
       <c r="K7" s="13"/>
       <c r="L7" s="13"/>
@@ -848,21 +1136,27 @@
         <v>2.0</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
+      <c r="D8" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="17">
+        <v>45037.0</v>
+      </c>
+      <c r="H8" s="18"/>
+      <c r="I8" s="19" t="s">
+        <v>19</v>
+      </c>
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
       <c r="L8" s="13"/>
@@ -886,17 +1180,23 @@
         <v>3.0</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
+        <v>21</v>
+      </c>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="17">
+        <v>45037.0</v>
+      </c>
+      <c r="H9" s="18"/>
+      <c r="I9" s="19" t="s">
+        <v>19</v>
+      </c>
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
       <c r="L9" s="13"/>
@@ -920,17 +1220,23 @@
         <v>4.0</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
+      <c r="G10" s="17">
+        <v>45037.0</v>
+      </c>
+      <c r="H10" s="18"/>
+      <c r="I10" s="19" t="s">
+        <v>19</v>
+      </c>
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
       <c r="L10" s="13"/>
@@ -954,17 +1260,23 @@
         <v>5.0</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
+        <v>27</v>
+      </c>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="17">
+        <v>45037.0</v>
+      </c>
+      <c r="H11" s="18"/>
+      <c r="I11" s="19" t="s">
+        <v>19</v>
+      </c>
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
       <c r="L11" s="13"/>
@@ -988,17 +1300,23 @@
         <v>6.0</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
+        <v>29</v>
+      </c>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="17">
+        <v>45037.0</v>
+      </c>
+      <c r="H12" s="18"/>
+      <c r="I12" s="19" t="s">
+        <v>19</v>
+      </c>
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
       <c r="L12" s="13"/>
@@ -1017,22 +1335,28 @@
       <c r="Y12" s="13"/>
       <c r="Z12" s="13"/>
     </row>
-    <row r="13" ht="34.5" customHeight="1">
+    <row r="13" ht="29.25" customHeight="1">
       <c r="A13" s="14">
         <v>7.0</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
+        <v>31</v>
+      </c>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="17">
+        <v>45037.0</v>
+      </c>
+      <c r="H13" s="18"/>
+      <c r="I13" s="19" t="s">
+        <v>19</v>
+      </c>
       <c r="J13" s="13"/>
       <c r="K13" s="13"/>
       <c r="L13" s="13"/>
@@ -1051,22 +1375,28 @@
       <c r="Y13" s="13"/>
       <c r="Z13" s="13"/>
     </row>
-    <row r="14" ht="29.25" customHeight="1">
+    <row r="14" ht="31.5" customHeight="1">
       <c r="A14" s="14">
         <v>8.0</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
+        <v>33</v>
+      </c>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="17">
+        <v>45037.0</v>
+      </c>
+      <c r="H14" s="18"/>
+      <c r="I14" s="19" t="s">
+        <v>19</v>
+      </c>
       <c r="J14" s="13"/>
       <c r="K14" s="13"/>
       <c r="L14" s="13"/>
@@ -1085,22 +1415,28 @@
       <c r="Y14" s="13"/>
       <c r="Z14" s="13"/>
     </row>
-    <row r="15" ht="31.5" customHeight="1">
+    <row r="15" ht="42.0" customHeight="1">
       <c r="A15" s="14">
         <v>9.0</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
+        <v>35</v>
+      </c>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="17">
+        <v>45037.0</v>
+      </c>
+      <c r="H15" s="18"/>
+      <c r="I15" s="19" t="s">
+        <v>19</v>
+      </c>
       <c r="J15" s="13"/>
       <c r="K15" s="13"/>
       <c r="L15" s="13"/>
@@ -1119,22 +1455,28 @@
       <c r="Y15" s="13"/>
       <c r="Z15" s="13"/>
     </row>
-    <row r="16" ht="42.0" customHeight="1">
+    <row r="16" ht="28.5" customHeight="1">
       <c r="A16" s="14">
         <v>10.0</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
+        <v>37</v>
+      </c>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="17">
+        <v>45037.0</v>
+      </c>
+      <c r="H16" s="18"/>
+      <c r="I16" s="19" t="s">
+        <v>19</v>
+      </c>
       <c r="J16" s="13"/>
       <c r="K16" s="13"/>
       <c r="L16" s="13"/>
@@ -1153,22 +1495,28 @@
       <c r="Y16" s="13"/>
       <c r="Z16" s="13"/>
     </row>
-    <row r="17" ht="28.5" customHeight="1">
+    <row r="17" ht="33.0" customHeight="1">
       <c r="A17" s="14">
         <v>11.0</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
+        <v>39</v>
+      </c>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="17">
+        <v>45037.0</v>
+      </c>
+      <c r="H17" s="18"/>
+      <c r="I17" s="19" t="s">
+        <v>19</v>
+      </c>
       <c r="J17" s="13"/>
       <c r="K17" s="13"/>
       <c r="L17" s="13"/>
@@ -1192,17 +1540,23 @@
         <v>12.0</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
+        <v>41</v>
+      </c>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="17">
+        <v>45037.0</v>
+      </c>
+      <c r="H18" s="18"/>
+      <c r="I18" s="19" t="s">
+        <v>19</v>
+      </c>
       <c r="J18" s="13"/>
       <c r="K18" s="13"/>
       <c r="L18" s="13"/>
@@ -1221,22 +1575,32 @@
       <c r="Y18" s="13"/>
       <c r="Z18" s="13"/>
     </row>
-    <row r="19" ht="33.0" customHeight="1">
+    <row r="19" ht="51.0" customHeight="1">
       <c r="A19" s="14">
         <v>13.0</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
+        <v>43</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="G19" s="17">
+        <v>45037.0</v>
+      </c>
+      <c r="H19" s="18"/>
+      <c r="I19" s="19" t="s">
+        <v>19</v>
+      </c>
       <c r="J19" s="13"/>
       <c r="K19" s="13"/>
       <c r="L19" s="13"/>
@@ -1255,26 +1619,32 @@
       <c r="Y19" s="13"/>
       <c r="Z19" s="13"/>
     </row>
-    <row r="20" ht="51.0" customHeight="1">
+    <row r="20" ht="56.25" customHeight="1">
       <c r="A20" s="14">
         <v>14.0</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>43</v>
+        <v>47</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>48</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
+        <v>49</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="G20" s="17">
+        <v>45037.0</v>
+      </c>
+      <c r="H20" s="18"/>
+      <c r="I20" s="19" t="s">
+        <v>19</v>
+      </c>
       <c r="J20" s="13"/>
       <c r="K20" s="13"/>
       <c r="L20" s="13"/>
@@ -1293,26 +1663,28 @@
       <c r="Y20" s="13"/>
       <c r="Z20" s="13"/>
     </row>
-    <row r="21" ht="56.25" customHeight="1">
+    <row r="21" ht="52.5" customHeight="1">
       <c r="A21" s="14">
         <v>15.0</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>47</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="C21" s="21"/>
       <c r="D21" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="E21" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
+        <v>53</v>
+      </c>
+      <c r="E21" s="21"/>
+      <c r="F21" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="G21" s="17">
+        <v>45037.0</v>
+      </c>
+      <c r="H21" s="18"/>
+      <c r="I21" s="19" t="s">
+        <v>19</v>
+      </c>
       <c r="J21" s="13"/>
       <c r="K21" s="13"/>
       <c r="L21" s="13"/>
@@ -1331,22 +1703,28 @@
       <c r="Y21" s="13"/>
       <c r="Z21" s="13"/>
     </row>
-    <row r="22" ht="52.5" customHeight="1">
+    <row r="22" ht="45.75" customHeight="1">
       <c r="A22" s="14">
         <v>16.0</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" s="19"/>
+        <v>54</v>
+      </c>
+      <c r="C22" s="21"/>
       <c r="D22" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" s="21"/>
+      <c r="F22" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="E22" s="19"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
+      <c r="G22" s="17">
+        <v>45037.0</v>
+      </c>
+      <c r="H22" s="18"/>
+      <c r="I22" s="19" t="s">
+        <v>19</v>
+      </c>
       <c r="J22" s="13"/>
       <c r="K22" s="13"/>
       <c r="L22" s="13"/>
@@ -1365,22 +1743,28 @@
       <c r="Y22" s="13"/>
       <c r="Z22" s="13"/>
     </row>
-    <row r="23" ht="45.75" customHeight="1">
+    <row r="23" ht="41.25" customHeight="1">
       <c r="A23" s="14">
         <v>17.0</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C23" s="19"/>
+        <v>56</v>
+      </c>
+      <c r="C23" s="21"/>
       <c r="D23" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="E23" s="19"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
+        <v>57</v>
+      </c>
+      <c r="E23" s="21"/>
+      <c r="F23" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="G23" s="17">
+        <v>45037.0</v>
+      </c>
+      <c r="H23" s="18"/>
+      <c r="I23" s="19" t="s">
+        <v>19</v>
+      </c>
       <c r="J23" s="13"/>
       <c r="K23" s="13"/>
       <c r="L23" s="13"/>
@@ -1399,22 +1783,28 @@
       <c r="Y23" s="13"/>
       <c r="Z23" s="13"/>
     </row>
-    <row r="24" ht="41.25" customHeight="1">
+    <row r="24" ht="61.5" customHeight="1">
       <c r="A24" s="14">
         <v>18.0</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24" s="19"/>
+        <v>58</v>
+      </c>
+      <c r="C24" s="21"/>
       <c r="D24" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="E24" s="19"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
+        <v>59</v>
+      </c>
+      <c r="E24" s="21"/>
+      <c r="F24" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="G24" s="17">
+        <v>45037.0</v>
+      </c>
+      <c r="H24" s="18"/>
+      <c r="I24" s="19" t="s">
+        <v>19</v>
+      </c>
       <c r="J24" s="13"/>
       <c r="K24" s="13"/>
       <c r="L24" s="13"/>
@@ -1433,22 +1823,28 @@
       <c r="Y24" s="13"/>
       <c r="Z24" s="13"/>
     </row>
-    <row r="25" ht="61.5" customHeight="1">
+    <row r="25" ht="44.25" customHeight="1">
       <c r="A25" s="14">
         <v>19.0</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="C25" s="19"/>
+        <v>61</v>
+      </c>
+      <c r="C25" s="21"/>
       <c r="D25" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="E25" s="19"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
+        <v>62</v>
+      </c>
+      <c r="E25" s="21"/>
+      <c r="F25" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="G25" s="17">
+        <v>45037.0</v>
+      </c>
+      <c r="H25" s="18"/>
+      <c r="I25" s="19" t="s">
+        <v>19</v>
+      </c>
       <c r="J25" s="13"/>
       <c r="K25" s="13"/>
       <c r="L25" s="13"/>
@@ -1467,22 +1863,28 @@
       <c r="Y25" s="13"/>
       <c r="Z25" s="13"/>
     </row>
-    <row r="26" ht="44.25" customHeight="1">
+    <row r="26" ht="37.5" customHeight="1">
       <c r="A26" s="14">
         <v>20.0</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C26" s="19"/>
+        <v>64</v>
+      </c>
+      <c r="C26" s="21"/>
       <c r="D26" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="E26" s="19"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
+        <v>65</v>
+      </c>
+      <c r="E26" s="21"/>
+      <c r="F26" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="G26" s="17">
+        <v>45037.0</v>
+      </c>
+      <c r="H26" s="18"/>
+      <c r="I26" s="19" t="s">
+        <v>19</v>
+      </c>
       <c r="J26" s="13"/>
       <c r="K26" s="13"/>
       <c r="L26" s="13"/>
@@ -1501,22 +1903,28 @@
       <c r="Y26" s="13"/>
       <c r="Z26" s="13"/>
     </row>
-    <row r="27" ht="37.5" customHeight="1">
+    <row r="27" ht="56.25" customHeight="1">
       <c r="A27" s="14">
         <v>21.0</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="C27" s="19"/>
+        <v>66</v>
+      </c>
+      <c r="C27" s="21"/>
       <c r="D27" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="E27" s="19"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
+        <v>67</v>
+      </c>
+      <c r="E27" s="21"/>
+      <c r="F27" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="G27" s="17">
+        <v>45037.0</v>
+      </c>
+      <c r="H27" s="18"/>
+      <c r="I27" s="19" t="s">
+        <v>19</v>
+      </c>
       <c r="J27" s="13"/>
       <c r="K27" s="13"/>
       <c r="L27" s="13"/>
@@ -1535,22 +1943,28 @@
       <c r="Y27" s="13"/>
       <c r="Z27" s="13"/>
     </row>
-    <row r="28" ht="56.25" customHeight="1">
+    <row r="28" ht="60.0" customHeight="1">
       <c r="A28" s="14">
         <v>22.0</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="C28" s="19"/>
+        <v>68</v>
+      </c>
+      <c r="C28" s="22"/>
       <c r="D28" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="E28" s="19"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
+        <v>69</v>
+      </c>
+      <c r="E28" s="22"/>
+      <c r="F28" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="G28" s="17">
+        <v>45037.0</v>
+      </c>
+      <c r="H28" s="18"/>
+      <c r="I28" s="19" t="s">
+        <v>19</v>
+      </c>
       <c r="J28" s="13"/>
       <c r="K28" s="13"/>
       <c r="L28" s="13"/>
@@ -1569,22 +1983,32 @@
       <c r="Y28" s="13"/>
       <c r="Z28" s="13"/>
     </row>
-    <row r="29" ht="60.0" customHeight="1">
+    <row r="29" ht="67.5" customHeight="1">
       <c r="A29" s="14">
         <v>23.0</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="C29" s="20"/>
+        <v>71</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>72</v>
+      </c>
       <c r="D29" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="E29" s="20"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
+        <v>73</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="F29" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="G29" s="17">
+        <v>45037.0</v>
+      </c>
+      <c r="H29" s="18"/>
+      <c r="I29" s="19" t="s">
+        <v>19</v>
+      </c>
       <c r="J29" s="13"/>
       <c r="K29" s="13"/>
       <c r="L29" s="13"/>
@@ -1598,31 +2022,19 @@
       <c r="T29" s="13"/>
       <c r="U29" s="13"/>
       <c r="V29" s="13"/>
-      <c r="W29" s="13"/>
-      <c r="X29" s="13"/>
-      <c r="Y29" s="13"/>
-      <c r="Z29" s="13"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="14">
-        <v>24.0</v>
-      </c>
-      <c r="B30" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="D30" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="E30" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
+    </row>
+    <row r="30" ht="61.5" customHeight="1">
+      <c r="A30" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="12"/>
       <c r="J30" s="13"/>
       <c r="K30" s="13"/>
       <c r="L30" s="13"/>
@@ -1636,19 +2048,33 @@
       <c r="T30" s="13"/>
       <c r="U30" s="13"/>
       <c r="V30" s="13"/>
-    </row>
-    <row r="31">
+      <c r="W30" s="13"/>
+      <c r="X30" s="13"/>
+      <c r="Y30" s="13"/>
+      <c r="Z30" s="13"/>
+    </row>
+    <row r="31" ht="69.75" customHeight="1">
       <c r="A31" s="14">
-        <v>25.0</v>
-      </c>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
+        <v>24.0</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="19" t="s">
+        <v>19</v>
+      </c>
       <c r="J31" s="13"/>
       <c r="K31" s="13"/>
       <c r="L31" s="13"/>
@@ -1669,16 +2095,26 @@
     </row>
     <row r="32">
       <c r="A32" s="14">
-        <v>26.0</v>
-      </c>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
+        <v>25.0</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="D32" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="E32" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="19" t="s">
+        <v>19</v>
+      </c>
       <c r="J32" s="13"/>
       <c r="K32" s="13"/>
       <c r="L32" s="13"/>
@@ -1697,18 +2133,18 @@
       <c r="Y32" s="13"/>
       <c r="Z32" s="13"/>
     </row>
-    <row r="33">
-      <c r="A33" s="14">
-        <v>27.0</v>
-      </c>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
+    <row r="33" ht="67.5" customHeight="1">
+      <c r="A33" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="12"/>
       <c r="J33" s="13"/>
       <c r="K33" s="13"/>
       <c r="L33" s="13"/>
@@ -1727,18 +2163,28 @@
       <c r="Y33" s="13"/>
       <c r="Z33" s="13"/>
     </row>
-    <row r="34">
+    <row r="34" ht="91.5" customHeight="1">
       <c r="A34" s="14">
-        <v>28.0</v>
-      </c>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
+        <v>26.0</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="19" t="s">
+        <v>19</v>
+      </c>
       <c r="J34" s="13"/>
       <c r="K34" s="13"/>
       <c r="L34" s="13"/>
@@ -1757,18 +2203,28 @@
       <c r="Y34" s="13"/>
       <c r="Z34" s="13"/>
     </row>
-    <row r="35">
+    <row r="35" ht="21.75" customHeight="1">
       <c r="A35" s="14">
-        <v>29.0</v>
-      </c>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
+        <v>27.0</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D35" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="E35" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="19" t="s">
+        <v>19</v>
+      </c>
       <c r="J35" s="13"/>
       <c r="K35" s="13"/>
       <c r="L35" s="13"/>
@@ -1787,18 +2243,24 @@
       <c r="Y35" s="13"/>
       <c r="Z35" s="13"/>
     </row>
-    <row r="36">
+    <row r="36" ht="21.0" customHeight="1">
       <c r="A36" s="14">
-        <v>30.0</v>
-      </c>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
+        <v>28.0</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="19" t="s">
+        <v>19</v>
+      </c>
       <c r="J36" s="13"/>
       <c r="K36" s="13"/>
       <c r="L36" s="13"/>
@@ -1817,18 +2279,24 @@
       <c r="Y36" s="13"/>
       <c r="Z36" s="13"/>
     </row>
-    <row r="37">
+    <row r="37" ht="25.5" customHeight="1">
       <c r="A37" s="14">
-        <v>31.0</v>
-      </c>
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17"/>
+        <v>29.0</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="19" t="s">
+        <v>19</v>
+      </c>
       <c r="J37" s="13"/>
       <c r="K37" s="13"/>
       <c r="L37" s="13"/>
@@ -1847,18 +2315,24 @@
       <c r="Y37" s="13"/>
       <c r="Z37" s="13"/>
     </row>
-    <row r="38">
+    <row r="38" ht="24.0" customHeight="1">
       <c r="A38" s="14">
-        <v>32.0</v>
-      </c>
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
+        <v>30.0</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C38" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="19" t="s">
+        <v>19</v>
+      </c>
       <c r="J38" s="13"/>
       <c r="K38" s="13"/>
       <c r="L38" s="13"/>
@@ -1877,18 +2351,24 @@
       <c r="Y38" s="13"/>
       <c r="Z38" s="13"/>
     </row>
-    <row r="39">
+    <row r="39" ht="24.0" customHeight="1">
       <c r="A39" s="14">
-        <v>33.0</v>
-      </c>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
+        <v>31.0</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="C39" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="19" t="s">
+        <v>19</v>
+      </c>
       <c r="J39" s="13"/>
       <c r="K39" s="13"/>
       <c r="L39" s="13"/>
@@ -1907,18 +2387,24 @@
       <c r="Y39" s="13"/>
       <c r="Z39" s="13"/>
     </row>
-    <row r="40">
+    <row r="40" ht="19.5" customHeight="1">
       <c r="A40" s="14">
-        <v>34.0</v>
-      </c>
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="17"/>
+        <v>32.0</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C40" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="19" t="s">
+        <v>19</v>
+      </c>
       <c r="J40" s="13"/>
       <c r="K40" s="13"/>
       <c r="L40" s="13"/>
@@ -1937,18 +2423,24 @@
       <c r="Y40" s="13"/>
       <c r="Z40" s="13"/>
     </row>
-    <row r="41">
+    <row r="41" ht="24.75" customHeight="1">
       <c r="A41" s="14">
-        <v>35.0</v>
-      </c>
-      <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="17"/>
+        <v>33.0</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C41" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="19" t="s">
+        <v>19</v>
+      </c>
       <c r="J41" s="13"/>
       <c r="K41" s="13"/>
       <c r="L41" s="13"/>
@@ -1969,16 +2461,22 @@
     </row>
     <row r="42">
       <c r="A42" s="14">
-        <v>36.0</v>
-      </c>
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="17"/>
+        <v>34.0</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="C42" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="18"/>
+      <c r="I42" s="19" t="s">
+        <v>19</v>
+      </c>
       <c r="J42" s="13"/>
       <c r="K42" s="13"/>
       <c r="L42" s="13"/>
@@ -1999,16 +2497,22 @@
     </row>
     <row r="43">
       <c r="A43" s="14">
-        <v>37.0</v>
-      </c>
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="17"/>
+        <v>35.0</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="19" t="s">
+        <v>19</v>
+      </c>
       <c r="J43" s="13"/>
       <c r="K43" s="13"/>
       <c r="L43" s="13"/>
@@ -2029,16 +2533,22 @@
     </row>
     <row r="44">
       <c r="A44" s="14">
-        <v>38.0</v>
-      </c>
-      <c r="B44" s="17"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="17"/>
-      <c r="I44" s="17"/>
+        <v>36.0</v>
+      </c>
+      <c r="B44" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="C44" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="18"/>
+      <c r="I44" s="19" t="s">
+        <v>19</v>
+      </c>
       <c r="J44" s="13"/>
       <c r="K44" s="13"/>
       <c r="L44" s="13"/>
@@ -2059,16 +2569,22 @@
     </row>
     <row r="45">
       <c r="A45" s="14">
-        <v>39.0</v>
-      </c>
-      <c r="B45" s="17"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="17"/>
-      <c r="I45" s="17"/>
+        <v>37.0</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C45" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="18"/>
+      <c r="I45" s="19" t="s">
+        <v>19</v>
+      </c>
       <c r="J45" s="13"/>
       <c r="K45" s="13"/>
       <c r="L45" s="13"/>
@@ -2089,16 +2605,22 @@
     </row>
     <row r="46">
       <c r="A46" s="14">
-        <v>40.0</v>
-      </c>
-      <c r="B46" s="17"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="17"/>
-      <c r="I46" s="17"/>
+        <v>38.0</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="C46" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="D46" s="22"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="18"/>
+      <c r="I46" s="19" t="s">
+        <v>19</v>
+      </c>
       <c r="J46" s="13"/>
       <c r="K46" s="13"/>
       <c r="L46" s="13"/>
@@ -2117,18 +2639,28 @@
       <c r="Y46" s="13"/>
       <c r="Z46" s="13"/>
     </row>
-    <row r="47">
+    <row r="47" ht="164.25" customHeight="1">
       <c r="A47" s="14">
-        <v>41.0</v>
-      </c>
-      <c r="B47" s="17"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="17"/>
-      <c r="I47" s="17"/>
+        <v>39.0</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D47" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="E47" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="F47" s="18"/>
+      <c r="G47" s="18"/>
+      <c r="H47" s="18"/>
+      <c r="I47" s="19" t="s">
+        <v>19</v>
+      </c>
       <c r="J47" s="13"/>
       <c r="K47" s="13"/>
       <c r="L47" s="13"/>
@@ -2147,18 +2679,18 @@
       <c r="Y47" s="13"/>
       <c r="Z47" s="13"/>
     </row>
-    <row r="48">
-      <c r="A48" s="14">
-        <v>42.0</v>
-      </c>
-      <c r="B48" s="17"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="17"/>
-      <c r="G48" s="17"/>
-      <c r="H48" s="17"/>
-      <c r="I48" s="17"/>
+    <row r="48" ht="51.75" customHeight="1">
+      <c r="A48" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="12"/>
       <c r="J48" s="13"/>
       <c r="K48" s="13"/>
       <c r="L48" s="13"/>
@@ -2177,16 +2709,32 @@
       <c r="Y48" s="13"/>
       <c r="Z48" s="13"/>
     </row>
-    <row r="49">
-      <c r="A49" s="13"/>
-      <c r="B49" s="13"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
-      <c r="H49" s="13"/>
-      <c r="I49" s="13"/>
+    <row r="49" ht="93.0" customHeight="1">
+      <c r="A49" s="14">
+        <v>40.0</v>
+      </c>
+      <c r="B49" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="C49" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="D49" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="E49" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="F49" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="G49" s="17">
+        <v>45037.0</v>
+      </c>
+      <c r="H49" s="18"/>
+      <c r="I49" s="19" t="s">
+        <v>19</v>
+      </c>
       <c r="J49" s="13"/>
       <c r="K49" s="13"/>
       <c r="L49" s="13"/>
@@ -2206,15 +2754,17 @@
       <c r="Z49" s="13"/>
     </row>
     <row r="50">
-      <c r="A50" s="13"/>
-      <c r="B50" s="13"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
-      <c r="H50" s="13"/>
-      <c r="I50" s="13"/>
+      <c r="A50" s="14">
+        <v>41.0</v>
+      </c>
+      <c r="B50" s="32"/>
+      <c r="C50" s="33"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="34"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="18"/>
+      <c r="H50" s="18"/>
+      <c r="I50" s="18"/>
       <c r="J50" s="13"/>
       <c r="K50" s="13"/>
       <c r="L50" s="13"/>
@@ -2234,10 +2784,12 @@
       <c r="Z50" s="13"/>
     </row>
     <row r="51">
-      <c r="A51" s="13"/>
+      <c r="A51" s="14">
+        <v>42.0</v>
+      </c>
       <c r="B51" s="13"/>
       <c r="C51" s="13"/>
-      <c r="D51" s="13"/>
+      <c r="D51" s="35"/>
       <c r="E51" s="13"/>
       <c r="F51" s="13"/>
       <c r="G51" s="13"/>
@@ -2265,7 +2817,7 @@
       <c r="A52" s="13"/>
       <c r="B52" s="13"/>
       <c r="C52" s="13"/>
-      <c r="D52" s="13"/>
+      <c r="D52" s="35"/>
       <c r="E52" s="13"/>
       <c r="F52" s="13"/>
       <c r="G52" s="13"/>
@@ -2293,7 +2845,7 @@
       <c r="A53" s="13"/>
       <c r="B53" s="13"/>
       <c r="C53" s="13"/>
-      <c r="D53" s="13"/>
+      <c r="D53" s="35"/>
       <c r="E53" s="13"/>
       <c r="F53" s="13"/>
       <c r="G53" s="13"/>
@@ -2321,7 +2873,7 @@
       <c r="A54" s="13"/>
       <c r="B54" s="13"/>
       <c r="C54" s="13"/>
-      <c r="D54" s="13"/>
+      <c r="D54" s="35"/>
       <c r="E54" s="13"/>
       <c r="F54" s="13"/>
       <c r="G54" s="13"/>
@@ -2345,14 +2897,84 @@
       <c r="Y54" s="13"/>
       <c r="Z54" s="13"/>
     </row>
+    <row r="55">
+      <c r="A55" s="13"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="35"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="13"/>
+      <c r="I55" s="13"/>
+      <c r="J55" s="13"/>
+      <c r="K55" s="13"/>
+      <c r="L55" s="13"/>
+      <c r="M55" s="13"/>
+      <c r="N55" s="13"/>
+      <c r="O55" s="13"/>
+      <c r="P55" s="13"/>
+      <c r="Q55" s="13"/>
+      <c r="R55" s="13"/>
+      <c r="S55" s="13"/>
+      <c r="T55" s="13"/>
+      <c r="U55" s="13"/>
+      <c r="V55" s="13"/>
+      <c r="W55" s="13"/>
+      <c r="X55" s="13"/>
+      <c r="Y55" s="13"/>
+      <c r="Z55" s="13"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="13"/>
+      <c r="B56" s="13"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="35"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="13"/>
+      <c r="G56" s="13"/>
+      <c r="H56" s="13"/>
+      <c r="I56" s="13"/>
+      <c r="J56" s="13"/>
+      <c r="K56" s="13"/>
+      <c r="L56" s="13"/>
+      <c r="M56" s="13"/>
+      <c r="N56" s="13"/>
+      <c r="O56" s="13"/>
+      <c r="P56" s="13"/>
+      <c r="Q56" s="13"/>
+      <c r="R56" s="13"/>
+      <c r="S56" s="13"/>
+      <c r="T56" s="13"/>
+      <c r="U56" s="13"/>
+      <c r="V56" s="13"/>
+      <c r="W56" s="13"/>
+      <c r="X56" s="13"/>
+      <c r="Y56" s="13"/>
+      <c r="Z56" s="13"/>
+    </row>
+    <row r="57">
+      <c r="D57" s="35"/>
+    </row>
+    <row r="58">
+      <c r="D58" s="35"/>
+    </row>
+    <row r="59">
+      <c r="D59" s="35"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="11">
+    <mergeCell ref="D35:D46"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:I6"/>
-    <mergeCell ref="D8:D19"/>
-    <mergeCell ref="E8:E19"/>
-    <mergeCell ref="C21:C29"/>
-    <mergeCell ref="E21:E29"/>
+    <mergeCell ref="C20:C28"/>
+    <mergeCell ref="E20:E28"/>
+    <mergeCell ref="A30:I30"/>
+    <mergeCell ref="A33:I33"/>
+    <mergeCell ref="D8:D18"/>
+    <mergeCell ref="E8:E18"/>
+    <mergeCell ref="A48:I48"/>
+    <mergeCell ref="E35:E46"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/結合テスト.xlsx
+++ b/結合テスト.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="135">
   <si>
     <t>結合テスト項目</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>入力された内容が表示される</t>
+  </si>
+  <si>
+    <t>入力した内容が表示された</t>
   </si>
   <si>
     <t>カナ(姓)に入力した内容が登録確認画面に送られる</t>
@@ -296,6 +299,9 @@
 3.アカウント登録完了画面に移動するか確認</t>
   </si>
   <si>
+    <t>登録完了画面に移動した</t>
+  </si>
+  <si>
     <t>送信エラーが発生した際のエラー表記</t>
   </si>
   <si>
@@ -311,6 +317,10 @@
   <si>
     <t>「エラーが発生したためアカウント登録出来ません。」
 と赤字で表示される</t>
+  </si>
+  <si>
+    <t>「エラーが発生したためアカウント登録出来ません。」
+と赤字で表示された</t>
   </si>
   <si>
     <t>アカウント登録確認画面⇒アカウント登録完了画面⇒MySQL ページURL：http://localhost/phpmyadmin/index.php?route=/sql&amp;pos=0&amp;db=lesson01&amp;table=acount</t>
@@ -330,6 +340,10 @@
   </si>
   <si>
     <t>MySQLに情報が保存されている</t>
+  </si>
+  <si>
+    <t>情報は保存されているが、「delete_flag」が
+null値になっている</t>
   </si>
   <si>
     <t>名前(姓)をfamily_nameに保存する</t>
@@ -344,12 +358,16 @@
 4.ページURLからMySQLに移動
 5.各項目の情報が保存されているかを確認
 ※パスワードはハッシュ化されたものが記載されている
+性別は、「男」は1、「女」は1で表記されている
 アカウント権限は、「一般」は0「管理者」は1で表記されている</t>
   </si>
   <si>
     <t>適切な形式でMySQLに情報が保存される</t>
   </si>
   <si>
+    <t>登録した内容が入っている</t>
+  </si>
+  <si>
     <t>名前(名)をlast_nameに保存する</t>
   </si>
   <si>
@@ -380,12 +398,18 @@
     <t>パスワードがpasswordに保存されているか</t>
   </si>
   <si>
+    <t>ハッシュ化された文字が入っている</t>
+  </si>
+  <si>
     <t>性別をgenderに保存する</t>
   </si>
   <si>
     <t>性別がgenderに保存されているか</t>
   </si>
   <si>
+    <t>「男」を選択したため0が入っている</t>
+  </si>
+  <si>
     <t>郵便番号をpostal_codeに保存する</t>
   </si>
   <si>
@@ -398,6 +422,9 @@
     <t>住所(都道府県)がprefectureに保存されているか</t>
   </si>
   <si>
+    <t>「長野」を選択したので長野と表記されている</t>
+  </si>
+  <si>
     <t>住所(市区町村)をaddress_1に保存する</t>
   </si>
   <si>
@@ -414,6 +441,9 @@
   </si>
   <si>
     <t>アカウント権限がauthorityに保存されている</t>
+  </si>
+  <si>
+    <t>「一般」を選んだため0が入っている</t>
   </si>
   <si>
     <t>パスワードのハッシュ化</t>
@@ -431,6 +461,9 @@
   <si>
     <t>パスワードが入力したものではなく、ハッシュ化された
 別物に置き換わっている</t>
+  </si>
+  <si>
+    <t>ハッシュ化された文字列が登録されている</t>
   </si>
   <si>
     <t>アカウント登録確認画面⇒アカウント登録画面</t>
@@ -1002,7 +1035,7 @@
     <col customWidth="1" min="3" max="3" width="54.63"/>
     <col customWidth="1" min="4" max="4" width="54.88"/>
     <col customWidth="1" min="5" max="5" width="44.63"/>
-    <col customWidth="1" min="6" max="6" width="38.38"/>
+    <col customWidth="1" min="6" max="6" width="43.25"/>
     <col customWidth="1" min="7" max="7" width="19.38"/>
     <col customWidth="1" min="8" max="8" width="32.75"/>
     <col customWidth="1" min="9" max="9" width="38.75"/>
@@ -1148,7 +1181,7 @@
         <v>23</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G8" s="17">
         <v>45037.0</v>
@@ -1188,7 +1221,7 @@
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
       <c r="F9" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G9" s="17">
         <v>45037.0</v>
@@ -1220,15 +1253,15 @@
         <v>4.0</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
       <c r="F10" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G10" s="17">
         <v>45037.0</v>
@@ -1260,15 +1293,15 @@
         <v>5.0</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" s="21"/>
       <c r="E11" s="21"/>
       <c r="F11" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G11" s="17">
         <v>45037.0</v>
@@ -1300,15 +1333,15 @@
         <v>6.0</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D12" s="21"/>
       <c r="E12" s="21"/>
       <c r="F12" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G12" s="17">
         <v>45037.0</v>
@@ -1340,15 +1373,15 @@
         <v>7.0</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D13" s="21"/>
       <c r="E13" s="21"/>
       <c r="F13" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G13" s="17">
         <v>45037.0</v>
@@ -1380,15 +1413,15 @@
         <v>8.0</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D14" s="21"/>
       <c r="E14" s="21"/>
       <c r="F14" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G14" s="17">
         <v>45037.0</v>
@@ -1420,15 +1453,15 @@
         <v>9.0</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D15" s="21"/>
       <c r="E15" s="21"/>
       <c r="F15" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G15" s="17">
         <v>45037.0</v>
@@ -1460,15 +1493,15 @@
         <v>10.0</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D16" s="21"/>
       <c r="E16" s="21"/>
       <c r="F16" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G16" s="17">
         <v>45037.0</v>
@@ -1500,15 +1533,15 @@
         <v>11.0</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D17" s="21"/>
       <c r="E17" s="21"/>
       <c r="F17" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G17" s="17">
         <v>45037.0</v>
@@ -1540,15 +1573,15 @@
         <v>12.0</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D18" s="22"/>
       <c r="E18" s="22"/>
       <c r="F18" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G18" s="17">
         <v>45037.0</v>
@@ -1580,19 +1613,19 @@
         <v>13.0</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G19" s="17">
         <v>45037.0</v>
@@ -1624,19 +1657,19 @@
         <v>14.0</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G20" s="17">
         <v>45037.0</v>
@@ -1668,15 +1701,15 @@
         <v>15.0</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C21" s="21"/>
       <c r="D21" s="16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E21" s="21"/>
       <c r="F21" s="16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G21" s="17">
         <v>45037.0</v>
@@ -1708,15 +1741,15 @@
         <v>16.0</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C22" s="21"/>
       <c r="D22" s="16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E22" s="21"/>
       <c r="F22" s="16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G22" s="17">
         <v>45037.0</v>
@@ -1748,15 +1781,15 @@
         <v>17.0</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C23" s="21"/>
       <c r="D23" s="16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E23" s="21"/>
       <c r="F23" s="16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G23" s="17">
         <v>45037.0</v>
@@ -1788,15 +1821,15 @@
         <v>18.0</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C24" s="21"/>
       <c r="D24" s="16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E24" s="21"/>
       <c r="F24" s="16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G24" s="17">
         <v>45037.0</v>
@@ -1828,15 +1861,15 @@
         <v>19.0</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C25" s="21"/>
       <c r="D25" s="16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E25" s="21"/>
       <c r="F25" s="16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G25" s="17">
         <v>45037.0</v>
@@ -1868,15 +1901,15 @@
         <v>20.0</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C26" s="21"/>
       <c r="D26" s="16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E26" s="21"/>
       <c r="F26" s="16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G26" s="17">
         <v>45037.0</v>
@@ -1908,15 +1941,15 @@
         <v>21.0</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C27" s="21"/>
       <c r="D27" s="16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E27" s="21"/>
       <c r="F27" s="16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G27" s="17">
         <v>45037.0</v>
@@ -1948,15 +1981,15 @@
         <v>22.0</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C28" s="22"/>
       <c r="D28" s="16" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E28" s="22"/>
       <c r="F28" s="16" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G28" s="17">
         <v>45037.0</v>
@@ -1988,19 +2021,19 @@
         <v>23.0</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G29" s="17">
         <v>45037.0</v>
@@ -2025,7 +2058,7 @@
     </row>
     <row r="30" ht="61.5" customHeight="1">
       <c r="A30" s="23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -2058,19 +2091,23 @@
         <v>24.0</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C31" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="E31" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="D31" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
+      <c r="F31" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="G31" s="17">
+        <v>45038.0</v>
+      </c>
       <c r="H31" s="18"/>
       <c r="I31" s="19" t="s">
         <v>19</v>
@@ -2098,19 +2135,23 @@
         <v>25.0</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D32" s="24" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E32" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
+        <v>85</v>
+      </c>
+      <c r="F32" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="G32" s="17">
+        <v>45038.0</v>
+      </c>
       <c r="H32" s="18"/>
       <c r="I32" s="19" t="s">
         <v>19</v>
@@ -2135,7 +2176,7 @@
     </row>
     <row r="33" ht="67.5" customHeight="1">
       <c r="A33" s="25" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -2168,19 +2209,23 @@
         <v>26.0</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
+        <v>91</v>
+      </c>
+      <c r="F34" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="G34" s="17">
+        <v>45038.0</v>
+      </c>
       <c r="H34" s="18"/>
       <c r="I34" s="19" t="s">
         <v>19</v>
@@ -2208,19 +2253,23 @@
         <v>27.0</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D35" s="20" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E35" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
+        <v>96</v>
+      </c>
+      <c r="F35" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="G35" s="17">
+        <v>45038.0</v>
+      </c>
       <c r="H35" s="18"/>
       <c r="I35" s="19" t="s">
         <v>19</v>
@@ -2248,15 +2297,19 @@
         <v>28.0</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D36" s="21"/>
       <c r="E36" s="21"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
+      <c r="F36" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="G36" s="17">
+        <v>45038.0</v>
+      </c>
       <c r="H36" s="18"/>
       <c r="I36" s="19" t="s">
         <v>19</v>
@@ -2284,15 +2337,19 @@
         <v>29.0</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D37" s="21"/>
       <c r="E37" s="21"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
+      <c r="F37" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="G37" s="17">
+        <v>45038.0</v>
+      </c>
       <c r="H37" s="18"/>
       <c r="I37" s="19" t="s">
         <v>19</v>
@@ -2320,15 +2377,19 @@
         <v>30.0</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C38" s="26" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D38" s="21"/>
       <c r="E38" s="21"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
+      <c r="F38" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="G38" s="17">
+        <v>45038.0</v>
+      </c>
       <c r="H38" s="18"/>
       <c r="I38" s="19" t="s">
         <v>19</v>
@@ -2356,15 +2417,19 @@
         <v>31.0</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C39" s="26" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D39" s="21"/>
       <c r="E39" s="21"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18"/>
+      <c r="F39" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="G39" s="17">
+        <v>45038.0</v>
+      </c>
       <c r="H39" s="18"/>
       <c r="I39" s="19" t="s">
         <v>19</v>
@@ -2392,15 +2457,19 @@
         <v>32.0</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C40" s="26" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D40" s="21"/>
       <c r="E40" s="21"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="18"/>
+      <c r="F40" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="G40" s="17">
+        <v>45038.0</v>
+      </c>
       <c r="H40" s="18"/>
       <c r="I40" s="19" t="s">
         <v>19</v>
@@ -2428,15 +2497,19 @@
         <v>33.0</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="C41" s="26" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="D41" s="21"/>
       <c r="E41" s="21"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="18"/>
+      <c r="F41" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="G41" s="17">
+        <v>45038.0</v>
+      </c>
       <c r="H41" s="18"/>
       <c r="I41" s="19" t="s">
         <v>19</v>
@@ -2464,15 +2537,19 @@
         <v>34.0</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="C42" s="27" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D42" s="21"/>
       <c r="E42" s="21"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="18"/>
+      <c r="F42" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="G42" s="17">
+        <v>45038.0</v>
+      </c>
       <c r="H42" s="18"/>
       <c r="I42" s="19" t="s">
         <v>19</v>
@@ -2500,15 +2577,19 @@
         <v>35.0</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="D43" s="21"/>
       <c r="E43" s="21"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="18"/>
+      <c r="F43" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="G43" s="17">
+        <v>45038.0</v>
+      </c>
       <c r="H43" s="18"/>
       <c r="I43" s="19" t="s">
         <v>19</v>
@@ -2536,15 +2617,19 @@
         <v>36.0</v>
       </c>
       <c r="B44" s="28" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="C44" s="27" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="D44" s="21"/>
       <c r="E44" s="21"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="18"/>
+      <c r="F44" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="G44" s="17">
+        <v>45038.0</v>
+      </c>
       <c r="H44" s="18"/>
       <c r="I44" s="19" t="s">
         <v>19</v>
@@ -2572,15 +2657,19 @@
         <v>37.0</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="C45" s="27" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="D45" s="21"/>
       <c r="E45" s="21"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="18"/>
+      <c r="F45" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="G45" s="17">
+        <v>45038.0</v>
+      </c>
       <c r="H45" s="18"/>
       <c r="I45" s="19" t="s">
         <v>19</v>
@@ -2608,15 +2697,19 @@
         <v>38.0</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="D46" s="22"/>
       <c r="E46" s="22"/>
-      <c r="F46" s="18"/>
-      <c r="G46" s="18"/>
+      <c r="F46" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="G46" s="17">
+        <v>45038.0</v>
+      </c>
       <c r="H46" s="18"/>
       <c r="I46" s="19" t="s">
         <v>19</v>
@@ -2644,19 +2737,23 @@
         <v>39.0</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="D47" s="20" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="F47" s="18"/>
-      <c r="G47" s="18"/>
+        <v>127</v>
+      </c>
+      <c r="F47" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="G47" s="17">
+        <v>45038.0</v>
+      </c>
       <c r="H47" s="18"/>
       <c r="I47" s="19" t="s">
         <v>19</v>
@@ -2681,7 +2778,7 @@
     </row>
     <row r="48" ht="51.75" customHeight="1">
       <c r="A48" s="29" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
@@ -2714,19 +2811,19 @@
         <v>40.0</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C49" s="30" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="D49" s="16" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="E49" s="31" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="F49" s="16" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="G49" s="17">
         <v>45037.0</v>
@@ -2964,17 +3061,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="D8:D18"/>
     <mergeCell ref="D35:D46"/>
+    <mergeCell ref="E20:E28"/>
+    <mergeCell ref="E35:E46"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:I6"/>
+    <mergeCell ref="E8:E18"/>
     <mergeCell ref="C20:C28"/>
-    <mergeCell ref="E20:E28"/>
     <mergeCell ref="A30:I30"/>
     <mergeCell ref="A33:I33"/>
-    <mergeCell ref="D8:D18"/>
-    <mergeCell ref="E8:E18"/>
     <mergeCell ref="A48:I48"/>
-    <mergeCell ref="E35:E46"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
